--- a/12 - Умные таблицы/Assignm30.xlsx
+++ b/12 - Умные таблицы/Assignm30.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Африка" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Африка!$A$1:$C$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Африка!$A$1:$C$63</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="11">
   <si>
     <t>Нигерия</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Список отгруженных товаров (код)</t>
+  </si>
+  <si>
+    <t>Судан</t>
   </si>
 </sst>
 </file>
@@ -232,6 +235,70 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -263,70 +330,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -379,8 +382,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Товары" displayName="Товары" ref="A1:C62" totalsRowShown="0">
-  <autoFilter ref="A1:C62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Товары" displayName="Товары" ref="A1:C63" totalsRowShown="0">
+  <autoFilter ref="A1:C63"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Список отгруженных товаров (код)"/>
     <tableColumn id="2" name="Страна отгрузки" dataDxfId="7" dataCellStyle="Процентный"/>
@@ -391,11 +394,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Наценка" displayName="Наценка" ref="H1:I7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="H1:I7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Наценка" displayName="Наценка" ref="H1:I8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+  <autoFilter ref="H1:I8"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Страна" dataDxfId="2"/>
-    <tableColumn id="2" name="Наценка" dataDxfId="1"/>
+    <tableColumn id="1" name="Страна" dataDxfId="1"/>
+    <tableColumn id="2" name="Наценка" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +717,7 @@
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -822,6 +825,12 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1253,6 +1262,14 @@
       </c>
       <c r="B62" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1005</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/12 - Умные таблицы/Assignm30.xlsx
+++ b/12 - Умные таблицы/Assignm30.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
   <si>
     <t>Нигерия</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Судан</t>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,12 +231,75 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -277,13 +343,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -293,6 +352,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -350,24 +416,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -382,23 +430,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Товары" displayName="Товары" ref="A1:C63" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Товары" displayName="Товары" ref="A1:C64" totalsRowCount="1">
   <autoFilter ref="A1:C63"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Список отгруженных товаров (код)"/>
-    <tableColumn id="2" name="Страна отгрузки" dataDxfId="7" dataCellStyle="Процентный"/>
-    <tableColumn id="3" name="Наценка" dataDxfId="6" dataCellStyle="Процентный"/>
+    <tableColumn id="1" name="Список отгруженных товаров (код)" totalsRowLabel="Итог"/>
+    <tableColumn id="2" name="Страна отгрузки" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="0" dataCellStyle="Процентный"/>
+    <tableColumn id="3" name="Наценка" totalsRowFunction="average" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Процентный">
+      <calculatedColumnFormula>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Наценка" displayName="Наценка" ref="H1:I8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Наценка" displayName="Наценка" ref="H1:I8" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="H1:I8"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Страна" dataDxfId="1"/>
-    <tableColumn id="2" name="Наценка" dataDxfId="0"/>
+    <tableColumn id="1" name="Страна" dataDxfId="4"/>
+    <tableColumn id="2" name="Наценка" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -701,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,6 +791,10 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.2</v>
+      </c>
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
@@ -755,6 +809,10 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
@@ -769,6 +827,10 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
@@ -783,6 +845,10 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>3</v>
       </c>
@@ -797,6 +863,10 @@
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C6" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
@@ -811,6 +881,10 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C7" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>5</v>
       </c>
@@ -825,6 +899,10 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C8" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.2</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>10</v>
       </c>
@@ -839,6 +917,10 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C9" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -847,6 +929,10 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -855,6 +941,10 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C11" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -863,6 +953,10 @@
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C12" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -871,6 +965,10 @@
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C13" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -879,6 +977,10 @@
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C14" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -887,6 +989,10 @@
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C15" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -895,381 +1001,586 @@
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>483220</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>565844</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>234030</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>303479</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>601397</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>641218</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>333883</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>278987</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>322831</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>194962</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>471847</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>410900</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>530703</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>593478</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>463841</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>254113</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>442513</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>445665</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>440750</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>609631</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>225728</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>341132</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>262150</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>618217</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>146809</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>650607</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>339252</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>597896</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>141742</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>312113</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>192806</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>228699</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>146943</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>205428</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>351371</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>614799</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>345599</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>242295</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>396475</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>481188</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>124706</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>256958</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>648690</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>176419</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>516451</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>197373</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1005</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C63" s="1">
+        <f>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="13">
+        <f>SUBTOTAL(103,Товары[Страна отгрузки])</f>
+        <v>62</v>
+      </c>
+      <c r="C64" s="12">
+        <f>SUBTOTAL(101,Товары[Наценка])</f>
+        <v>0.14145161290322589</v>
       </c>
     </row>
   </sheetData>

--- a/12 - Умные таблицы/Assignm30.xlsx
+++ b/12 - Умные таблицы/Assignm30.xlsx
@@ -244,63 +244,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -414,6 +357,63 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -434,8 +434,8 @@
   <autoFilter ref="A1:C63"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Список отгруженных товаров (код)" totalsRowLabel="Итог"/>
-    <tableColumn id="2" name="Страна отгрузки" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="0" dataCellStyle="Процентный"/>
-    <tableColumn id="3" name="Наценка" totalsRowFunction="average" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Процентный">
+    <tableColumn id="2" name="Страна отгрузки" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Процентный"/>
+    <tableColumn id="3" name="Наценка" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Процентный">
       <calculatedColumnFormula>VLOOKUP(Товары[[#This Row],[Страна отгрузки]],Наценка[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -444,11 +444,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Наценка" displayName="Наценка" ref="H1:I8" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Наценка" displayName="Наценка" ref="H1:I8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="H1:I8"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Страна" dataDxfId="4"/>
-    <tableColumn id="2" name="Наценка" dataDxfId="3"/>
+    <tableColumn id="1" name="Страна" dataDxfId="1"/>
+    <tableColumn id="2" name="Наценка" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,7 +754,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
